--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2162002.820567082</v>
+        <v>-2164741.250769145</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>330.3431491712333</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>355.255974385619</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>134.4014578809301</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>16.36089152870251</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>108.5538324583463</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>171.4998091606325</v>
+        <v>11.52502338186934</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>78.37496150053268</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.71437374394026</v>
+        <v>92.71437374394024</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>99.35593133205559</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>260.7106059022663</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>377.9607431620907</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186934</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>220.7628638495566</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.71437374394024</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>78.75829610434367</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>93.80844745988161</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>103.1686991936193</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>177.1006680594869</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>58.24570521548602</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>271.1598222873246</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>207.4006376819559</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>83.4472944825329</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,13 +2296,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>191.9440058362632</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>98.72106119200248</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002296</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541846</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634767</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3202,7 +3202,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
         <v>56.98118882652581</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3244,16 +3244,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3275,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417073</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>874.7988590758284</v>
+        <v>1112.708019527793</v>
       </c>
       <c r="C2" t="n">
-        <v>505.8363421354167</v>
+        <v>743.7455025873817</v>
       </c>
       <c r="D2" t="n">
-        <v>505.8363421354167</v>
+        <v>385.4798039806312</v>
       </c>
       <c r="E2" t="n">
-        <v>505.8363421354167</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F2" t="n">
-        <v>505.8363421354167</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640844</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640844</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>125.8997233870222</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723691</v>
+        <v>608.5986938974692</v>
       </c>
       <c r="L2" t="n">
-        <v>692.7231656905592</v>
+        <v>846.2214751156594</v>
       </c>
       <c r="M2" t="n">
-        <v>1091.624237249577</v>
+        <v>1142.29204167326</v>
       </c>
       <c r="N2" t="n">
-        <v>1397.099343485161</v>
+        <v>1447.767147908844</v>
       </c>
       <c r="O2" t="n">
-        <v>2038.122553105055</v>
+        <v>1968.860256443063</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394156</v>
+        <v>2487.745304821932</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466516</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459333</v>
+        <v>2242.215846837841</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.538031115762</v>
+        <v>2242.215846837841</v>
       </c>
       <c r="W2" t="n">
-        <v>1651.538031115762</v>
+        <v>1889.447191567727</v>
       </c>
       <c r="X2" t="n">
-        <v>1651.538031115762</v>
+        <v>1889.447191567727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1261.39869913995</v>
+        <v>1499.307859591915</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.99742130093843</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4413,19 +4413,19 @@
         <v>323.3685994072329</v>
       </c>
       <c r="L3" t="n">
-        <v>532.9594726600624</v>
+        <v>900.091414510487</v>
       </c>
       <c r="M3" t="n">
-        <v>1173.982682279956</v>
+        <v>1164.030946005973</v>
       </c>
       <c r="N3" t="n">
-        <v>1723.657007090158</v>
+        <v>1515.680492231667</v>
       </c>
       <c r="O3" t="n">
-        <v>2352.385654925577</v>
+        <v>2144.409140067087</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879286</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.32600838211519</v>
+        <v>1647.439588612989</v>
       </c>
       <c r="C4" t="n">
-        <v>68.32600838211519</v>
+        <v>1478.503405685082</v>
       </c>
       <c r="D4" t="n">
-        <v>68.32600838211519</v>
+        <v>1478.503405685082</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79985532281972</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281972</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>1332.824984110053</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>1466.334073395855</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>1692.706176713999</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>1941.772943046538</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>2190.352074789138</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>2403.938841137293</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>2563.178535773336</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361118</v>
+        <v>2480.342430324475</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361118</v>
+        <v>2277.870183484776</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361118</v>
+        <v>2277.870183484776</v>
       </c>
       <c r="U4" t="n">
-        <v>1022.06568235322</v>
+        <v>2277.870183484776</v>
       </c>
       <c r="V4" t="n">
-        <v>767.3811941473328</v>
+        <v>2277.870183484776</v>
       </c>
       <c r="W4" t="n">
-        <v>477.9640241103722</v>
+        <v>2277.870183484776</v>
       </c>
       <c r="X4" t="n">
-        <v>249.9744732123549</v>
+        <v>2049.880632586759</v>
       </c>
       <c r="Y4" t="n">
-        <v>249.9744732123549</v>
+        <v>1829.088053443228</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1070.470877667296</v>
+        <v>1552.718264700267</v>
       </c>
       <c r="C5" t="n">
-        <v>701.5083607268841</v>
+        <v>1183.755747759855</v>
       </c>
       <c r="D5" t="n">
-        <v>701.5083607268841</v>
+        <v>825.4900491531046</v>
       </c>
       <c r="E5" t="n">
-        <v>701.5083607268841</v>
+        <v>439.7017965548604</v>
       </c>
       <c r="F5" t="n">
-        <v>290.5224559372766</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719912</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104791</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135523</v>
+        <v>447.8319447135513</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477401</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187504</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4595,22 +4595,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2381.347406599813</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2127.76817854206</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="V5" t="n">
-        <v>1796.70529119849</v>
+        <v>2005.350650739662</v>
       </c>
       <c r="W5" t="n">
-        <v>1443.936635928376</v>
+        <v>1926.184022961346</v>
       </c>
       <c r="X5" t="n">
-        <v>1070.470877667296</v>
+        <v>1552.718264700267</v>
       </c>
       <c r="Y5" t="n">
-        <v>1070.470877667296</v>
+        <v>1552.718264700267</v>
       </c>
     </row>
     <row r="6">
@@ -4629,43 +4629,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.115382809621</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258287</v>
+        <v>437.9844898735114</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421434</v>
+        <v>1079.007699493405</v>
       </c>
       <c r="M6" t="n">
-        <v>1240.281905962037</v>
+        <v>1445.313588985731</v>
       </c>
       <c r="N6" t="n">
-        <v>1630.69146728778</v>
+        <v>1835.723150311474</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2170.651831027005</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>321.0955648487626</v>
+        <v>939.9124701864047</v>
       </c>
       <c r="C7" t="n">
-        <v>152.1593819208557</v>
+        <v>770.9762872584978</v>
       </c>
       <c r="D7" t="n">
-        <v>152.1593819208557</v>
+        <v>620.859647846162</v>
       </c>
       <c r="E7" t="n">
-        <v>152.1593819208557</v>
+        <v>620.859647846162</v>
       </c>
       <c r="F7" t="n">
-        <v>152.1593819208557</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080555</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225446</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317425</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
-        <v>1391.602671897099</v>
+        <v>1391.6026718971</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916872</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="T7" t="n">
-        <v>1348.412641916872</v>
+        <v>1424.04909569586</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.294864927271</v>
+        <v>1160.705049329935</v>
       </c>
       <c r="V7" t="n">
-        <v>1059.294864927271</v>
+        <v>1160.705049329935</v>
       </c>
       <c r="W7" t="n">
-        <v>769.8776948903101</v>
+        <v>1160.705049329935</v>
       </c>
       <c r="X7" t="n">
-        <v>541.8881439922927</v>
+        <v>1160.705049329935</v>
       </c>
       <c r="Y7" t="n">
-        <v>321.0955648487626</v>
+        <v>939.9124701864047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1229.177967410547</v>
+        <v>1641.978911265578</v>
       </c>
       <c r="C8" t="n">
-        <v>860.2154504701355</v>
+        <v>1273.016394325166</v>
       </c>
       <c r="D8" t="n">
-        <v>860.2154504701355</v>
+        <v>914.7506957184155</v>
       </c>
       <c r="E8" t="n">
-        <v>474.4271978718913</v>
+        <v>914.7506957184155</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228371</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135513</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
@@ -4820,7 +4820,7 @@
         <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
         <v>2568.493631507462</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.815585560731</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.236357502978</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.236357502978</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="W8" t="n">
-        <v>1989.243565735749</v>
+        <v>2028.578751329699</v>
       </c>
       <c r="X8" t="n">
-        <v>1615.777807474669</v>
+        <v>2028.578751329699</v>
       </c>
       <c r="Y8" t="n">
-        <v>1615.777807474669</v>
+        <v>2028.578751329699</v>
       </c>
     </row>
     <row r="9">
@@ -4866,40 +4866,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>532.0623520740545</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>829.3743011903694</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>1470.397510810263</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1860.807072136006</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851537</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>598.3196056942875</v>
+        <v>537.3597625559554</v>
       </c>
       <c r="C10" t="n">
-        <v>429.3834227663806</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="D10" t="n">
-        <v>279.2667833540448</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="E10" t="n">
-        <v>131.3536897716517</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="F10" t="n">
-        <v>131.3536897716517</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G10" t="n">
-        <v>131.3536897716517</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
-        <v>131.3536897716517</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080555</v>
+        <v>77.9810806808055</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225446</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317425</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>1391.6026718971</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
         <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153879</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910905</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1544.862307910905</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1544.862307910905</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.862307910905</v>
+        <v>1357.865893164277</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.177819705018</v>
+        <v>1103.18140495839</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.760649668057</v>
+        <v>813.7642349214291</v>
       </c>
       <c r="X10" t="n">
-        <v>1000.760649668057</v>
+        <v>813.7642349214291</v>
       </c>
       <c r="Y10" t="n">
-        <v>779.9680705245272</v>
+        <v>719.0082273861951</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5267,16 +5267,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>376.4492432300683</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>376.4492432300683</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5504,13 +5504,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5522,10 +5522,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2878.328163333972</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3475.706650960524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>3997.308687575531</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575531</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1703.562270119271</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1448.877781913384</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W19" t="n">
-        <v>1159.460611876424</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X19" t="n">
-        <v>931.4710609784063</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y19" t="n">
-        <v>931.4710609784063</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5832,25 +5832,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2295.62718338566</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2076.025718408601</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1786.950491752799</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1532.266003546912</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1242.848833509951</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.131553387299</v>
+        <v>1014.859282611934</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>794.0667034684034</v>
       </c>
     </row>
     <row r="23">
@@ -5990,16 +5990,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6069,25 +6069,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6190,7 +6190,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>816.5764010855557</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,13 +6239,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6382,13 +6382,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6409,7 +6409,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6625,7 +6625,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6640,31 +6640,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6680,70 +6680,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068006</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694703</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612122999</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852884</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591805</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615993</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527389</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803934</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793923</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319316</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565681</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954152</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551871</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611459</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004709</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612122999</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852884</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591805</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615993</v>
       </c>
     </row>
     <row r="36">
@@ -7002,31 +7002,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527389</v>
       </c>
       <c r="J36" t="n">
-        <v>214.9229991561138</v>
+        <v>245.2306927803934</v>
       </c>
       <c r="K36" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438185</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1307.627092998425</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954152</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231133</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,31 +7114,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7160,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192585</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111762</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075851</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332391</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014782</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793923</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319314</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656808</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942647</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311318</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
         <v>2496.057455973195</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532431</v>
@@ -7366,16 +7366,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7795,7 +7795,7 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,16 +7804,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>103.8691969711286</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>369.6030205083451</v>
+        <v>248.4615042601887</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159803</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,13 +8061,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660687</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>267.010559976636</v>
+        <v>66.98553110339697</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,31 +8292,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>11.3208259198764</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>347.1830914177568</v>
       </c>
       <c r="M6" t="n">
-        <v>277.4922425530996</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>22.36271716134974</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>232.4400048971974</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>277.4922425530995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906574</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>51.58722090102843</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>57.03176430942517</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>183.9332084197816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>130.0730711178667</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>7.929627593623749</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922698</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>87.17534280744522</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>15.02465210191951</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>44.73700564187212</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>97.5789915191117</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>33.76564955277399</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.288480726625471e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1357460.050165871</v>
+        <v>1357460.050165872</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1357460.050165872</v>
+        <v>1357460.050165871</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1357460.050165872</v>
+        <v>1357460.050165871</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1357460.050165872</v>
+        <v>1357460.050165871</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48691.36674215491</v>
+        <v>48691.36674215492</v>
       </c>
       <c r="C2" t="n">
+        <v>61578.13273982122</v>
+      </c>
+      <c r="D2" t="n">
         <v>61578.13273982126</v>
       </c>
-      <c r="D2" t="n">
-        <v>61578.13273982122</v>
-      </c>
       <c r="E2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675046</v>
       </c>
       <c r="F2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675042</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="L2" t="n">
+        <v>61578.13273982124</v>
+      </c>
+      <c r="M2" t="n">
         <v>61578.13273982123</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>61578.13273982127</v>
       </c>
-      <c r="N2" t="n">
-        <v>61578.13273982124</v>
-      </c>
       <c r="O2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898951</v>
+        <v>172764.3597898955</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457504</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>188841.7348196798</v>
+        <v>188841.7348196799</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,13 +26399,13 @@
         <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.22759808821138e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363172</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61714.61558823383</v>
+        <v>61714.61558823386</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
         <v>129066.7547252479</v>
@@ -26430,31 +26430,31 @@
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695082</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695083</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
+        <v>14278.33979478852</v>
+      </c>
+      <c r="K4" t="n">
         <v>14278.33979478853</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>14278.33979478871</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14278.33979478872</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14278.33979478853</v>
+      </c>
+      <c r="O4" t="n">
         <v>14278.33979478852</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14278.33979478855</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14278.33979478852</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14278.33979478852</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14278.33979478851</v>
       </c>
       <c r="P4" t="n">
         <v>14278.33979478852</v>
@@ -26497,10 +26497,10 @@
         <v>103164.1158539154</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>103164.1158539153</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>103164.1158539153</v>
       </c>
       <c r="N5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1042051.259618466</v>
+        <v>-1042480.818485054</v>
       </c>
       <c r="C6" t="n">
-        <v>-333734.0711368314</v>
+        <v>-333734.0711368318</v>
       </c>
       <c r="D6" t="n">
         <v>-160969.7113469363</v>
       </c>
       <c r="E6" t="n">
-        <v>-547762.883124602</v>
+        <v>-547797.6210500379</v>
       </c>
       <c r="F6" t="n">
-        <v>-46874.01537885171</v>
+        <v>-46908.75330428741</v>
       </c>
       <c r="G6" t="n">
-        <v>-46874.01537885171</v>
+        <v>-46908.75330428746</v>
       </c>
       <c r="H6" t="n">
-        <v>-46874.01537885171</v>
+        <v>-46908.75330428744</v>
       </c>
       <c r="I6" t="n">
-        <v>-46874.01537885171</v>
+        <v>-46908.75330428741</v>
       </c>
       <c r="J6" t="n">
-        <v>-244706.0577285626</v>
+        <v>-244706.0577285625</v>
       </c>
       <c r="K6" t="n">
         <v>-55864.32290888272</v>
       </c>
       <c r="L6" t="n">
-        <v>-55864.32290888271</v>
+        <v>-55864.32290888256</v>
       </c>
       <c r="M6" t="n">
-        <v>-186748.7798131178</v>
+        <v>-186748.779813118</v>
       </c>
       <c r="N6" t="n">
-        <v>-55864.32290888268</v>
+        <v>-55864.32290888287</v>
       </c>
       <c r="O6" t="n">
-        <v>-75292.0409025144</v>
+        <v>-75292.04090251439</v>
       </c>
       <c r="P6" t="n">
-        <v>-55864.32290888268</v>
+        <v>-55864.32290888272</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498449</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498449</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26765,13 +26765,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="O3" t="n">
         <v>1367.975500341674</v>
@@ -26817,10 +26817,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26960,13 +26960,13 @@
         <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522367</v>
+        <v>189.7254341522372</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918288</v>
+        <v>428.2691096918292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>116.7029951212992</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>185.7978922586874</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>240.0252142212368</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>270.8660072168803</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>66.94049551867393</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>25.51599331743932</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>28.91530257962074</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767967</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>128.4781048678564</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>25.73236340865743</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
@@ -28065,7 +28065,7 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>124.7762058922132</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>3.922195901395753e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>4.092726157978177e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265706</v>
       </c>
       <c r="H5" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730742</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182605</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793979</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853283</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027923</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839336</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712727</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062754</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R5" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237521</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179235</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837064</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612564</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H6" t="n">
-        <v>19.52107049255621</v>
+        <v>19.52107049255622</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041654</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315581</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274807</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157839</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,46 +31437,46 @@
         <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599261</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979553</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561278</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662511</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843065</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523075</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265706</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730742</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182605</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793979</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853283</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027923</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839336</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712727</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062754</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086972</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237521</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179235</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837064</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612564</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255622</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041654</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315581</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274807</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157839</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,10 +31674,10 @@
         <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.06611229599261</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
@@ -31686,34 +31686,34 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979553</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
         <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561278</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662511</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843065</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523075</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,7 +31847,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,10 +32087,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,19 +32315,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>658.2124561388958</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32552,28 +32552,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,10 +32789,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>401.521336481369</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>351.5042614518788</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O33" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558032</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,43 +33567,43 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>247.3820194983584</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181847</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.080820443724</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214695</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,43 +33804,43 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663332</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N39" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558032</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,43 +34041,43 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>314.5984986256103</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>74.84835158000254</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161554</v>
+        <v>487.5747176873202</v>
       </c>
       <c r="L2" t="n">
         <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>402.9303753121396</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
         <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>647.4981915352465</v>
+        <v>526.3566752870902</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223249</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185448</v>
+        <v>103.2802639586401</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138441</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>122.649588151796</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806359</v>
+        <v>582.5482980840951</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352465</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>555.2265907173748</v>
+        <v>355.2015618441358</v>
       </c>
       <c r="O3" t="n">
         <v>635.0794422579995</v>
@@ -34796,7 +34796,7 @@
         <v>174.0696575289985</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.93752551686885</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915742</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153411</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755196</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873427</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495859</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510059</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961994</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321225</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>199.8677849130206</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="M6" t="n">
-        <v>647.4981915352465</v>
+        <v>370.0059489821471</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482248</v>
       </c>
       <c r="O6" t="n">
-        <v>360.6745158639064</v>
+        <v>338.3117987025569</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297624</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225508</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978366</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266584</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912599</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597959</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701675</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.7336217364322</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915742</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153411</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755196</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873427</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495859</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510059</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961994</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171363</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>420.9869638903417</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>647.4981915352465</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482248</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025569</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131504</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297624</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978366</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266584</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912599</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597959</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
         <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701675</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.7336217364322</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,7 +35495,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,10 +35735,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35963,19 +35963,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>526.8707440555626</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36200,28 +36200,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>263.67989750701</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>208.9080170074344</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O33" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113588</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016745</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.626661811171</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986645</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J36" t="n">
-        <v>120.5443928316917</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961664</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992795</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071393</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625073</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789202</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37470,16 +37470,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986645</v>
       </c>
       <c r="Q37" t="n">
         <v>144.686904791938</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396469</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N39" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113588</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37707,19 +37707,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986645</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>180.6240912112801</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
